--- a/ゲーム制作.xlsx
+++ b/ゲーム制作.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsubakimk\Desktop\GC1\aiueo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="シート1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="シート2" sheetId="2" r:id="rId5"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
+    <sheet name="シート2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
   <si>
     <t>計画表</t>
   </si>
@@ -65,9 +73,6 @@
     <t>ダメージ表記</t>
   </si>
   <si>
-    <t>余裕があればBGM、SE</t>
-  </si>
-  <si>
     <t>スケジュール</t>
   </si>
   <si>
@@ -96,39 +101,119 @@
   </si>
   <si>
     <t>木</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>余裕があれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BGM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SE</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ゴール</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -139,6 +224,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -147,6 +234,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -155,53 +245,58 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -391,25 +486,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -423,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -435,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -447,7 +547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -459,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -471,12 +571,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -490,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -501,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -512,7 +612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -523,352 +623,516 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>17</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44833</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44834</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44835</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44836</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44837</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44838</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44839</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44840</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44841</v>
+      </c>
+      <c r="J2" s="3">
+        <v>44842</v>
+      </c>
+      <c r="K2" s="3">
+        <v>44843</v>
+      </c>
+      <c r="L2" s="3">
+        <v>44844</v>
+      </c>
+      <c r="M2" s="3">
+        <v>44845</v>
+      </c>
+      <c r="N2" s="3">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>44833.0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>44834.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44835.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>44836.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>44837.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>44838.0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>44839.0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>44840.0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>44841.0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>44842.0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>44843.0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>44844.0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>44845.0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>44846.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="6"/>
-    </row>
-    <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44847</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44848</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44849</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44850</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44851</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44852</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44853</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44854</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44855</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44856</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44857</v>
+      </c>
+      <c r="L8" s="3">
+        <v>44858</v>
+      </c>
+      <c r="M8" s="3">
+        <v>44859</v>
+      </c>
+      <c r="N8" s="3">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>44847.0</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44848.0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44849.0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>44850.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>44851.0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>44852.0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>44853.0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>44854.0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44855.0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>44856.0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>44857.0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>44858.0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>44859.0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>44860.0</v>
-      </c>
-    </row>
-    <row r="12" ht="26.25" customHeight="1"/>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44861</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44862</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44863</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44864</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44865</v>
+      </c>
+      <c r="F14" s="3">
+        <v>44866</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44867</v>
+      </c>
+      <c r="H14" s="3">
+        <v>44868</v>
+      </c>
+      <c r="I14" s="3">
+        <v>44869</v>
+      </c>
+      <c r="J14" s="3">
+        <v>44870</v>
+      </c>
+      <c r="K14" s="3">
+        <v>44871</v>
+      </c>
+      <c r="L14" s="3">
+        <v>44872</v>
+      </c>
+      <c r="M14" s="3">
+        <v>44873</v>
+      </c>
+      <c r="N14" s="3">
+        <v>44874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>44861.0</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44862.0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44863.0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>44864.0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>44865.0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>44866.0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>44867.0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>44868.0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>44869.0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>44870.0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>44871.0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>44872.0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>44873.0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>44874.0</v>
-      </c>
-    </row>
-    <row r="18" ht="30.75" customHeight="1"/>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="I19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
     <mergeCell ref="L15:L18"/>
     <mergeCell ref="M15:M18"/>
     <mergeCell ref="N15:N18"/>
@@ -879,7 +1143,41 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="E15:E18"/>
     <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="M3:M6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>